--- a/七孔測試.xlsx
+++ b/七孔測試.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\readingExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D988B7F-508C-45BB-9A64-A5F51898C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C241D1-E296-4843-A0B6-79C2F543A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
+    <workbookView xWindow="-5670" yWindow="6780" windowWidth="13170" windowHeight="8235" activeTab="1" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15061,7 +15061,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="104">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -15105,30 +15105,6 @@
     <t>Page1</t>
   </si>
   <si>
-    <t>Page2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>啟始深度</t>
   </si>
   <si>
@@ -15165,145 +15141,6 @@
   <si>
     <t>B-7-7</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-C-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-C-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-C-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-10-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-10-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-11-6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-12-2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-12-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-12-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-12-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-12-5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-16</t>
-  </si>
-  <si>
-    <t>B-T-17</t>
-  </si>
-  <si>
-    <t>B-T-18</t>
-  </si>
-  <si>
-    <t>B-T-19</t>
-  </si>
-  <si>
-    <t>C-1-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-1-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-2-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-3-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-T-26</t>
-  </si>
-  <si>
-    <t>B-T-27</t>
-  </si>
-  <si>
-    <t>B-T-28</t>
-  </si>
-  <si>
-    <t>B-T-29</t>
-  </si>
-  <si>
-    <t>B-T-30</t>
   </si>
   <si>
     <t>里程</t>
@@ -15972,7 +15809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16131,6 +15968,7 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16143,10 +15981,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -16167,7 +16007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="試驗項目與數量"/>
@@ -21011,8 +20851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF2186-9F34-4BDD-AE99-1E11C7016B25}">
   <dimension ref="A1:CF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21235,8 +21075,8 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>144</v>
+      <c r="D3" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -21247,8 +21087,8 @@
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>145</v>
+      <c r="D4" s="58" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -21282,44 +21122,32 @@
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="T9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="5"/>
-      <c r="AF9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
@@ -21328,7 +21156,7 @@
     </row>
     <row r="10" spans="1:84" ht="16.5">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>110</v>
@@ -21351,121 +21179,47 @@
       <c r="H10" s="5">
         <v>110</v>
       </c>
-      <c r="I10" s="5">
-        <v>90</v>
-      </c>
-      <c r="J10" s="5">
-        <v>90</v>
-      </c>
-      <c r="K10" s="5">
-        <v>90</v>
-      </c>
-      <c r="L10" s="5">
-        <v>90</v>
-      </c>
-      <c r="M10" s="5">
-        <v>90</v>
-      </c>
-      <c r="N10" s="5">
-        <v>90</v>
-      </c>
-      <c r="O10" s="5">
-        <v>90</v>
-      </c>
-      <c r="P10" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>90</v>
-      </c>
-      <c r="R10" s="5">
-        <v>90</v>
-      </c>
-      <c r="S10" s="5">
-        <v>90</v>
-      </c>
-      <c r="T10" s="5">
-        <v>80</v>
-      </c>
-      <c r="U10" s="5">
-        <v>80</v>
-      </c>
-      <c r="V10" s="5">
-        <v>80</v>
-      </c>
-      <c r="W10" s="5">
-        <v>80</v>
-      </c>
-      <c r="X10" s="5">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>90</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AQ10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AR10" s="5">
-        <v>80</v>
-      </c>
-      <c r="AS10" s="5">
-        <v>80</v>
-      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
     </row>
     <row r="11" spans="1:84" ht="16.5">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>30</v>
@@ -21488,254 +21242,106 @@
       <c r="H11" s="5">
         <v>30</v>
       </c>
-      <c r="I11" s="5">
-        <v>20</v>
-      </c>
-      <c r="J11" s="5">
-        <v>20</v>
-      </c>
-      <c r="K11" s="5">
-        <v>20</v>
-      </c>
-      <c r="L11" s="5">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5">
-        <v>20</v>
-      </c>
-      <c r="O11" s="5">
-        <v>20</v>
-      </c>
-      <c r="P11" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>20</v>
-      </c>
-      <c r="R11" s="5">
-        <v>20</v>
-      </c>
-      <c r="S11" s="5">
-        <v>20</v>
-      </c>
-      <c r="T11" s="5">
-        <v>20</v>
-      </c>
-      <c r="U11" s="5">
-        <v>20</v>
-      </c>
-      <c r="V11" s="5">
-        <v>20</v>
-      </c>
-      <c r="W11" s="5">
-        <v>20</v>
-      </c>
-      <c r="X11" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>30</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AQ11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AR11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AS11" s="5">
-        <v>20</v>
-      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
     </row>
     <row r="12" spans="1:84" ht="16.5">
       <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS12" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
@@ -21778,7 +21384,7 @@
     </row>
     <row r="13" spans="1:84" ht="16.5">
       <c r="A13" s="11" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -21827,7 +21433,7 @@
     </row>
     <row r="14" spans="1:84" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -21850,121 +21456,47 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>1</v>
-      </c>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5">
-        <v>1</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1</v>
-      </c>
-      <c r="V14" s="5">
-        <v>1</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1</v>
-      </c>
-      <c r="X14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="5">
-        <v>1</v>
-      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
     </row>
     <row r="15" spans="1:84" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -21987,121 +21519,47 @@
       <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>5</v>
-      </c>
-      <c r="K15" s="5">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
-        <v>5</v>
-      </c>
-      <c r="N15" s="5">
-        <v>5</v>
-      </c>
-      <c r="O15" s="5">
-        <v>5</v>
-      </c>
-      <c r="P15" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>5</v>
-      </c>
-      <c r="R15" s="5">
-        <v>5</v>
-      </c>
-      <c r="S15" s="5">
-        <v>5</v>
-      </c>
-      <c r="T15" s="5">
-        <v>5</v>
-      </c>
-      <c r="U15" s="5">
-        <v>5</v>
-      </c>
-      <c r="V15" s="5">
-        <v>5</v>
-      </c>
-      <c r="W15" s="5">
-        <v>5</v>
-      </c>
-      <c r="X15" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AM15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AN15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AO15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AP15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AQ15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AR15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AS15" s="5">
-        <v>5</v>
-      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
     </row>
     <row r="16" spans="1:84" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -22124,121 +21582,47 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5">
-        <v>0</v>
-      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5">
         <v>100</v>
@@ -22261,121 +21645,47 @@
       <c r="H17" s="5">
         <v>100</v>
       </c>
-      <c r="I17" s="5">
-        <v>100</v>
-      </c>
-      <c r="J17" s="5">
-        <v>100</v>
-      </c>
-      <c r="K17" s="5">
-        <v>100</v>
-      </c>
-      <c r="L17" s="5">
-        <v>100</v>
-      </c>
-      <c r="M17" s="5">
-        <v>100</v>
-      </c>
-      <c r="N17" s="5">
-        <v>100</v>
-      </c>
-      <c r="O17" s="5">
-        <v>100</v>
-      </c>
-      <c r="P17" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>100</v>
-      </c>
-      <c r="R17" s="5">
-        <v>100</v>
-      </c>
-      <c r="S17" s="5">
-        <v>100</v>
-      </c>
-      <c r="T17" s="5">
-        <v>100</v>
-      </c>
-      <c r="U17" s="5">
-        <v>100</v>
-      </c>
-      <c r="V17" s="5">
-        <v>100</v>
-      </c>
-      <c r="W17" s="5">
-        <v>100</v>
-      </c>
-      <c r="X17" s="5">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AM17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AO17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AP17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AQ17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AR17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AS17" s="5">
-        <v>100</v>
-      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
     </row>
     <row r="18" spans="1:45" ht="16.5">
       <c r="A18" s="13" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -22452,7 +21762,7 @@
     </row>
     <row r="20" spans="1:45" ht="16.5">
       <c r="A20" s="7" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -22591,8 +21901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DF1F2-FE9C-46B0-B14B-3B141409F7CB}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23372,40 +22682,40 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>98.09</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -23414,37 +22724,37 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764601.6320000002</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="31">
         <v>3.3</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -23453,39 +22763,39 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281660.88799999998</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -23494,134 +22804,134 @@
     </row>
     <row r="4" spans="1:27" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>4</v>
       </c>
@@ -23658,11 +22968,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>100</v>
       </c>
@@ -23699,11 +23009,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -23740,11 +23050,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -23781,11 +23091,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -23822,11 +23132,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -23863,11 +23173,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -23900,11 +23210,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -23937,11 +23247,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -23974,11 +23284,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -24011,11 +23321,11 @@
         <v>21.5</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35">
         <v>59</v>
       </c>
@@ -24337,15 +23647,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24357,7 +23667,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25137,40 +24447,40 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>98.01</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -25179,37 +24489,37 @@
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764599.9649999999</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="31">
         <v>3.3</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -25218,39 +24528,39 @@
     </row>
     <row r="3" spans="1:25" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281656.06300000002</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -25259,134 +24569,134 @@
     </row>
     <row r="4" spans="1:25" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>3</v>
       </c>
@@ -25421,11 +24731,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>100</v>
       </c>
@@ -25460,11 +24770,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -25499,11 +24809,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -25538,11 +24848,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -25571,11 +24881,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -25602,11 +24912,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -25631,11 +24941,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -25660,11 +24970,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -25689,11 +24999,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -25718,11 +25028,11 @@
         <v>21.5</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35">
         <v>59</v>
       </c>
@@ -26021,15 +25331,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26041,7 +25351,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26821,40 +26131,40 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>97.9</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -26863,37 +26173,37 @@
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764597.2910000002</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="31">
         <v>3.3</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -26902,39 +26212,39 @@
     </row>
     <row r="3" spans="1:25" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281648.50300000003</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -26943,134 +26253,134 @@
     </row>
     <row r="4" spans="1:25" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>3</v>
       </c>
@@ -27105,11 +26415,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>100</v>
       </c>
@@ -27144,11 +26454,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -27183,11 +26493,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -27222,11 +26532,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -27253,11 +26563,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -27284,11 +26594,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -27313,11 +26623,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -27342,11 +26652,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -27371,11 +26681,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -27400,11 +26710,11 @@
         <v>21.5</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>86</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35">
         <v>100</v>
       </c>
@@ -27429,7 +26739,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -27709,15 +27019,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27729,7 +27039,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28509,40 +27819,40 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>97.92</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -28551,37 +27861,37 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764611.9750000001</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="57">
         <v>5.2</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -28590,39 +27900,39 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281703.36200000002</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -28631,134 +27941,134 @@
     </row>
     <row r="4" spans="1:27" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>100</v>
       </c>
@@ -28795,11 +28105,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>100</v>
       </c>
@@ -28836,11 +28146,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -28877,11 +28187,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -28918,11 +28228,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -28959,11 +28269,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -29000,11 +28310,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -29043,11 +28353,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -29080,11 +28390,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -29123,11 +28433,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -29152,11 +28462,11 @@
         <v>21</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>86</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35">
         <v>100</v>
       </c>
@@ -29181,7 +28491,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -29209,7 +28519,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -29467,15 +28777,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29487,7 +28797,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30267,40 +29577,40 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>98.65</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -30309,37 +29619,37 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764622.9</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="57">
         <v>4.5999999999999996</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -30348,39 +29658,39 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281637.48300000001</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -30389,134 +29699,134 @@
     </row>
     <row r="4" spans="1:27" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>4</v>
       </c>
@@ -30551,11 +29861,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>100</v>
       </c>
@@ -30590,11 +29900,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -30629,11 +29939,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -30668,11 +29978,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -30713,11 +30023,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -30752,11 +30062,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -30781,11 +30091,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -30810,11 +30120,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -30839,11 +30149,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -30868,11 +30178,11 @@
         <v>21</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>86</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35">
         <v>100</v>
       </c>
@@ -30897,7 +30207,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -30925,7 +30235,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -31183,15 +30493,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31203,7 +30513,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31983,40 +31293,40 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>99.82</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -32025,37 +31335,37 @@
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764652.3190000001</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="57">
         <v>4.83</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -32064,39 +31374,39 @@
     </row>
     <row r="3" spans="1:25" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281637.93</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -32105,134 +31415,134 @@
     </row>
     <row r="4" spans="1:25" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>2</v>
       </c>
@@ -32267,11 +31577,11 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>11</v>
       </c>
@@ -32306,11 +31616,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -32345,11 +31655,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -32384,11 +31694,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -32423,11 +31733,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -32462,11 +31772,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -32491,11 +31801,11 @@
         <v>14</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -32520,11 +31830,11 @@
         <v>16</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -32549,11 +31859,11 @@
         <v>18</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>98</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>81</v>
       </c>
@@ -32576,9 +31886,9 @@
     <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="35"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -32875,15 +32185,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32894,8 +32204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA3A8BD-1E0F-40E5-9E45-40110F29CC91}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -33675,40 +32985,40 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15">
       <c r="A1" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F1" s="25">
         <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
         <v>99.65</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H1" s="26"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -33717,37 +33027,37 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B2" s="29">
         <v>2764664.3149999999</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" s="57">
         <v>4.3</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -33756,39 +33066,39 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B3" s="29">
         <v>281638.25599999999</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -33797,134 +33107,134 @@
     </row>
     <row r="4" spans="1:27" ht="15.75">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="26">
         <v>1.5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="26">
         <v>5</v>
       </c>
@@ -33961,11 +33271,11 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="26">
         <v>9</v>
       </c>
@@ -34002,11 +33312,11 @@
         <v>5.5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="35">
         <v>100</v>
       </c>
@@ -34043,11 +33353,11 @@
         <v>7.5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="35">
         <v>100</v>
       </c>
@@ -34088,11 +33398,11 @@
         <v>9.5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="35">
         <v>100</v>
       </c>
@@ -34129,11 +33439,11 @@
         <v>11.5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="35">
         <v>100</v>
       </c>
@@ -34174,11 +33484,11 @@
         <v>13.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="35">
         <v>100</v>
       </c>
@@ -34203,11 +33513,11 @@
         <v>15.5</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="35">
         <v>100</v>
       </c>
@@ -34232,11 +33542,11 @@
         <v>17.5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="35">
         <v>100</v>
       </c>
@@ -34261,11 +33571,11 @@
         <v>19.5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="35">
         <v>100</v>
       </c>
@@ -34288,9 +33598,9 @@
     <row r="16" spans="1:27" ht="12.75">
       <c r="A16" s="35"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="35"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -34587,15 +33897,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="I3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/七孔測試.xlsx
+++ b/七孔測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\readingExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C241D1-E296-4843-A0B6-79C2F543A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79426B-AC9E-4620-A9E0-8936A5C25567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5670" yWindow="6780" windowWidth="13170" windowHeight="8235" activeTab="1" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20851,8 +20851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF2186-9F34-4BDD-AE99-1E11C7016B25}">
   <dimension ref="A1:CF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21091,7 +21091,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -21901,7 +21901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DF1F2-FE9C-46B0-B14B-3B141409F7CB}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E16"/>
     </sheetView>
   </sheetViews>

--- a/七孔測試.xlsx
+++ b/七孔測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\readingExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79426B-AC9E-4620-A9E0-8936A5C25567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181501D-0879-4A7F-AEFB-173E9BB8EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21091,7 +21091,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8"/>
     </row>

--- a/七孔測試.xlsx
+++ b/七孔測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\readingExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181501D-0879-4A7F-AEFB-173E9BB8EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492CD7B-A14F-4EA2-812B-3784E765A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
   </bookViews>
@@ -20852,7 +20852,7 @@
   <dimension ref="A1:CF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -21091,7 +21091,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8"/>
     </row>

--- a/七孔測試.xlsx
+++ b/七孔測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\readingExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492CD7B-A14F-4EA2-812B-3784E765A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210ABEE8-1DD6-408E-9756-3739A2B7A5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8E67047-50C6-4B75-9F41-9FB102D18D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20851,7 +20851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF2186-9F34-4BDD-AE99-1E11C7016B25}">
   <dimension ref="A1:CF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -21901,8 +21901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DF1F2-FE9C-46B0-B14B-3B141409F7CB}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22696,10 +22696,7 @@
       <c r="E1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="25">
-        <f>VLOOKUP($B$1,[1]試驗項目與數量!$B$3:$Y$66,24,FALSE)</f>
-        <v>98.09</v>
-      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="22" t="s">
         <v>32</v>
       </c>
